--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software\Gitroot\zhuceProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AA2375-F9F4-4C70-8D62-8EB2EAF8B767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A04DEF-F37F-4A04-8754-662E0725CCCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{45BC1088-7EEB-414B-9725-8572648270B6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,62 @@
   </si>
   <si>
     <t>勇往直前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sihu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sihu1321123@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sihu13231@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大威天龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liuhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qihu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bahu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bahu1321123@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qihu1321123@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liuhu1321123@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wuhu1321123@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永不退缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决不放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5C5575-9F85-4FB4-9CC4-29FFBD504B65}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -623,6 +679,166 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>123321</v>
+      </c>
+      <c r="D5">
+        <v>123321</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>315412121</v>
+      </c>
+      <c r="G5">
+        <v>54212123</v>
+      </c>
+      <c r="H5">
+        <v>32132121</v>
+      </c>
+      <c r="I5">
+        <v>2165412323</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>123321</v>
+      </c>
+      <c r="D6">
+        <v>123321</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>315412121</v>
+      </c>
+      <c r="G6">
+        <v>54212123</v>
+      </c>
+      <c r="H6">
+        <v>32132121</v>
+      </c>
+      <c r="I6">
+        <v>2165412323</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>123321</v>
+      </c>
+      <c r="D7">
+        <v>123321</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>315412121</v>
+      </c>
+      <c r="G7">
+        <v>54212123</v>
+      </c>
+      <c r="H7">
+        <v>32132121</v>
+      </c>
+      <c r="I7">
+        <v>2165412323</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>123321</v>
+      </c>
+      <c r="D8">
+        <v>123321</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>315412121</v>
+      </c>
+      <c r="G8">
+        <v>54212123</v>
+      </c>
+      <c r="H8">
+        <v>32132121</v>
+      </c>
+      <c r="I8">
+        <v>2165412323</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>123321</v>
+      </c>
+      <c r="D9">
+        <v>123321</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>315412121</v>
+      </c>
+      <c r="G9">
+        <v>54212123</v>
+      </c>
+      <c r="H9">
+        <v>32132121</v>
+      </c>
+      <c r="I9">
+        <v>2165412323</v>
+      </c>
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -632,8 +848,18 @@
     <hyperlink ref="E2" r:id="rId4" xr:uid="{3D21C7D6-B7F6-47C3-A4AF-9DD76971C957}"/>
     <hyperlink ref="E3" r:id="rId5" xr:uid="{2A854E22-B762-47C3-9D92-C87D07EAA4F6}"/>
     <hyperlink ref="E4" r:id="rId6" xr:uid="{762F6D42-093E-4A3D-B853-EA77793330E0}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{EB08BA1F-E81E-4C4C-BDDA-F88AE038945F}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{DD120AA7-A0D1-4E3C-B290-8D9CAE759899}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{0C121E21-1514-46CE-B08D-8ADDCE4D9D57}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{332FDFFB-80FA-4A17-95F5-1AA5B643C4D2}"/>
+    <hyperlink ref="B8" r:id="rId11" xr:uid="{F42B2F9E-77D9-4BAD-81E5-301C7CC8EEF4}"/>
+    <hyperlink ref="B9" r:id="rId12" xr:uid="{4B5978BE-F4CC-441A-9BFA-B1706C93B837}"/>
+    <hyperlink ref="E6" r:id="rId13" xr:uid="{9E3E5F7F-6778-425C-84D9-598F982A1AAC}"/>
+    <hyperlink ref="E7" r:id="rId14" xr:uid="{D7654C98-60FE-4301-A7D3-2959B5E9E43B}"/>
+    <hyperlink ref="E8" r:id="rId15" xr:uid="{166DF776-FA4F-49D3-A1E6-A5FFD6F3A5A5}"/>
+    <hyperlink ref="E9" r:id="rId16" xr:uid="{43A6DCFA-6A41-449D-A1B2-A83D8D0E5070}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>